--- a/public/assets/lead.xlsx
+++ b/public/assets/lead.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\psmproperty\public\panel\assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\pss\public\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C33FC0A-CB36-4A0A-AE70-8D350DD217D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F36A63C6-7C15-41B5-97E5-F703FA008216}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3384" yWindow="3384" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="lead" sheetId="1" r:id="rId1"/>
@@ -20,15 +20,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>id</t>
-  </si>
-  <si>
-    <t>building_id</t>
-  </si>
-  <si>
-    <t>interested_in</t>
   </si>
   <si>
     <t>sale_person_id</t>
@@ -41,9 +35,6 @@
   </si>
   <si>
     <t>phone_number</t>
-  </si>
-  <si>
-    <t>password</t>
   </si>
 </sst>
 </file>
@@ -884,11 +875,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -900,30 +889,21 @@
     <col min="8" max="8" width="17.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
